--- a/biology/Origine et évolution du vivant/Bilateria_(classification_phylogénétique)/Bilateria_(classification_phylogénétique).xlsx
+++ b/biology/Origine et évolution du vivant/Bilateria_(classification_phylogénétique)/Bilateria_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bilateria_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Bilateria_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Bilateria (Animaux bilatériens), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bilateria_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Bilateria_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -833,7 +847,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bilateria_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Bilateria_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -851,7 +865,9 @@
           <t>Débat scientifique relatif à la phylogénie des Bilateria</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux points ont été acquis ces dernières années :
 la monophylie des Bilatériens ;
@@ -868,8 +884,43 @@
 la relation au sein des Platyzoaires, ici présentés comme paraphylétiques, et entre eux et les autres taxa,
 la polyphylie des Lophophoriens ;
 etc.
-Classification selon Cavalier-Smith 1998
-Cette classification n'est pas à proprement parler phylogénétique. Basée sur les nouvelles phylogénies, elle maintient néanmoins des taxons paraphylétiques, notamment à la base des lignées évolutives, par commodité. Elle maintient également les niveaux traditionnels de classification (règnes, phyla, classes, etc.).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bilateria_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bilateria_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Débat scientifique relatif à la phylogénie des Bilateria</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification selon Cavalier-Smith 1998</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette classification n'est pas à proprement parler phylogénétique. Basée sur les nouvelles phylogénies, elle maintient néanmoins des taxons paraphylétiques, notamment à la base des lignées évolutives, par commodité. Elle maintient également les niveaux traditionnels de classification (règnes, phyla, classes, etc.).
 Classification selon Cavalier-Smith 1998
 ▲
 └─o règne des Animalia
@@ -978,35 +1029,43 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bilateria_(classification_phylog%C3%A9n%C3%A9tique)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bilateria_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Origine et évolution du vivant/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bilateria_(classification_phylog%C3%A9n%C3%A9tique)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>En savoir plus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sources bibliographiques de référence
-sur les Bilateria en général
-Gregory D. Edgecombe, Gonzalo Giribet, Casey W. Dunn, Andreas Hejnol, Reinhardt M. Kristensen, Ricardo C. Neves, Greg W. Rouse, Katrine Worsaae et Martin V. Sørensen : « Higher-level metazoan relationships: recent progress and remaining questions », Org. Divers. Evol., vol. 11, n°2, 2011, pp. 151-172
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>sur les Bilateria en général</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Gregory D. Edgecombe, Gonzalo Giribet, Casey W. Dunn, Andreas Hejnol, Reinhardt M. Kristensen, Ricardo C. Neves, Greg W. Rouse, Katrine Worsaae et Martin V. Sørensen : « Higher-level metazoan relationships: recent progress and remaining questions », Org. Divers. Evol., vol. 11, n°2, 2011, pp. 151-172
 Hervé Philippe, Henner Brinkmann, Dennis V. Lavrov, D. Timothy J. Littlewood, Michael Manuel, Gert Wörheide et Denis Baurain : « Resolving Difficult Phylogenetic Questions: Why More Sequences Are Not Enough », PLoS Biology, vol. 9, n°3, 2011, 10 pages
 Jordi Paps, Jaume Baguñà et Marta Riutort : « Lophotrochozoa internal phylogeny: new insights from an up-to-date analysis of nuclear ribosomal genes », in Proc. R. Soc. B, vol. 276, 2009, pp. 1245-1254
 Kevin J. Peterson, James A. Cotton, James G. Gehling et Davide Pisani : « The Ediacaran emergence of bilaterians: congruence between the genetic and the geological fossil records », Phil. Trans. R. Soc. B, vol. 363, 2008, pp. 1435–1443
@@ -1017,25 +1076,96 @@
 Kenneth M. Halanych (2004) « The New View of Animal Phylogeny », Annu. Rev. Ecol. Evol. Syst. 35, pp. 229–256
 Jan Zrzavý (2001) « The interrelationships of metazoan parasites: a review of phylum- and higher-level hypotheses from recent morphological and molecular phylogenetic analyses », Folia parasitologica, 48, pp. 81-103
 Kevin J. Peterson et Douglas J. Eernisse (2001) « Animal phylogeny and the ancestry of bilaterians: inferences from morphology and 18S rDNA gene sequences », Evolution and Development 3 (3), pp. 170-205
-Thomas Cavalier-Smith (1998) « A revised six-kingdom system of life », Biological reviews 73, p. 203-266
-sur des taxa particuliers développés sur cette page
-Allison C. Dailey : « The morphology and evolutionary significance of the anomalocaridids» , Digital Comprehensive Summaries of Uppsala Dissertations from the Faculty of Science and Technology, vol. 714, Acta Universitatis Upsaliensis, Uppsala, 2010,  (ISBN 978-91-554-7723-3)
+Thomas Cavalier-Smith (1998) « A revised six-kingdom system of life », Biological reviews 73, p. 203-266</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bilateria_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bilateria_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>sur des taxa particuliers développés sur cette page</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Allison C. Dailey : « The morphology and evolutionary significance of the anomalocaridids» , Digital Comprehensive Summaries of Uppsala Dissertations from the Faculty of Science and Technology, vol. 714, Acta Universitatis Upsaliensis, Uppsala, 2010,  (ISBN 978-91-554-7723-3)
 Donald J. Colgan, Patricia A. Hutchings et Emma Beacham : « Multi-Gene Analyses of the Phylogenetic Relationships among the Mollusca, Annelida, and Arthropoda », Zoological Studies, vol. 47, n°3, 2008, pp. 338-351
 Bernhard Hausdorf, Martin Helmkampf, Achim Meyer, Alexander Witek, Holger Herlyn, Iris Bruchhaus, Thomas Hankeln, Torsten H. Struck et Bernhard Lieb : « Spiralian Phylogenomics Supports the Resurrection of Bryozoa Comprising Ectoprocta and Entoprocta », Mol. Biol. Evol., vol. 24, n°12, 2007, pp. 2723–2729
 Simon Conway Morris et Jean-Bernard Caron : « Halwaxiids and the Early Evolution of the Lophotrochozoans », Science, vol. 315, n°5816, 2007, pp. 1255-1258
 Sarah J. Bourlat, Thorhildur Juliusdottir, Christopher J. Lowe, Robert Freeman, Jochanan Aronowicz, Mark Kirschner, Eric S. Lander, Michael Thorndyke, Hiroaki Nakano, Andrea B. Kohn, Andreas Heyland, Leonid L. Moroz, Richard R. Copley et Maximilian J. Telford : « Deuterostome phylogeny reveals monophyletic chordates and the new phylum Xenoturbellida », Nature, vol. 444, 2006, pp. 85-88
 Guy M. Narbonne : « The Ediacara Biota: Neoproterozoic Origin of Animals and Their Ecosystems », Annu. Rev. Earth Planet. Sci., vol. 33, 2005, pp. 421–442
-Jerzy Dzik : « Anatomical Information Content in the Ediacaran Fossils and Their Possible Zoological Affinities », Integr. Comp. Biol., vol. 43, 2003, pp. 114-126
-Autres sources bibliographiques
-Bernard L. Cohen et Agata Weydmann (2005) « Molecular evidence that phoronids are a subtaxon of brachiopods (Brachiopoda: Phoronata) and that genetic divergence of metazoan phyla began long before the Early Cambrian », Org. Divers. Evol. 5 (4), pp. 253-273
+Jerzy Dzik : « Anatomical Information Content in the Ediacaran Fossils and Their Possible Zoological Affinities », Integr. Comp. Biol., vol. 43, 2003, pp. 114-126</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bilateria_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bilateria_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres sources bibliographiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bernard L. Cohen et Agata Weydmann (2005) « Molecular evidence that phoronids are a subtaxon of brachiopods (Brachiopoda: Phoronata) and that genetic divergence of metazoan phyla began long before the Early Cambrian », Org. Divers. Evol. 5 (4), pp. 253-273
 J. E. Blair, S. B. Hedges, 2005. « Molecular Phylogeny and Divergence Times of Deuterostome Animals », Mol. Biol. Evol. 22, 2275-2284.
 K. G. Helfenbein, J. L. Boore, 2004. « The Mitochondrial Genome of Phoronis architecta - Comparisons Demonstrate that Phoronids Are Lophotrochozoan Protostomes », Mol. Biol. Evol. 21, 153-157.
 R. A. Jenner, 2003. « Unleashing the Force of Cladistics ? Metazoan Phylogenetics and Hypothesis Testing », Integr. Comp. Biol. 43, 207-218.
 J. L. Boore, J. L. Staton, 2002. « The Mitochondrial Genome of the Sipunculid Phascolopsis gouldii Supports Its Association with Annelida Rather than Mollusca », Mol. Biol. Evol. 19, 127-137.
 J. W. Valentine, 1997. « Cleavage patterns and the topology of the metazoan tree of life », PNAS 94, 8001-8005.
 K. Halanych, J. Bacheller, A. Aguinaldo, S. Liva, D. Hillis, J. Lake, 1995. « Evidence from 18S ribosomal DNA that the lophophorates are protostome animals », Science 267, 1641-1643.
-J. Ballard, G. Olsen, D. Faith, W. Odgers, D. Rowell, and P. Atkinson, 1992. Evidence from 12S ribosomal RNA sequences that onychophorans are modified arthropods. Science 258, 1345-1348
-Sources internet</t>
+J. Ballard, G. Olsen, D. Faith, W. Odgers, D. Rowell, and P. Atkinson, 1992. Evidence from 12S ribosomal RNA sequences that onychophorans are modified arthropods. Science 258, 1345-1348</t>
         </is>
       </c>
     </row>
